--- a/Final Project EDA_NaNs.xlsx
+++ b/Final Project EDA_NaNs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radya\OneDrive\Desktop\Hacktiv8\H8-Assignments-Bay\finpro-ftds-001-hck-ftds-001-hck-group-004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39814D1-6D6C-4F83-A442-1945000B8E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F734C2-EF3D-4E34-B1DD-E4228497DBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8545E26D-FB83-416B-871B-2484ADE54395}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>Column Name</t>
   </si>
@@ -333,15 +333,252 @@
   <si>
     <t>Description / Info</t>
   </si>
+  <si>
+    <t>The job title supplied by the Borrower when applying for the loan.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment length in years. Possible values are between 0 and 10 where 0 means less than one year and 10 means ten or more years. </t>
+  </si>
+  <si>
+    <t>The self-reported annual income provided by the borrower during registration.</t>
+  </si>
+  <si>
+    <t>Loan description provided by the borrower</t>
+  </si>
+  <si>
+    <t>The loan title provided by the borrower</t>
+  </si>
+  <si>
+    <t>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</t>
+  </si>
+  <si>
+    <t>The month the borrower's earliest reported credit line was opened</t>
+  </si>
+  <si>
+    <t>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</t>
+  </si>
+  <si>
+    <t>The number of months since the borrower's last delinquency</t>
+  </si>
+  <si>
+    <t>The number of months since the last public record.</t>
+  </si>
+  <si>
+    <t>The number of open credit lines in the borrower's credit file.</t>
+  </si>
+  <si>
+    <t>Number of derogatory public records</t>
+  </si>
+  <si>
+    <t>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</t>
+  </si>
+  <si>
+    <t>The total number of credit lines currently in the borrower's credit file</t>
+  </si>
+  <si>
+    <t>Last month payment was received</t>
+  </si>
+  <si>
+    <t>Next scheduled payment date</t>
+  </si>
+  <si>
+    <t>The most recent month LC pulled credit for this loan</t>
+  </si>
+  <si>
+    <t>Number of collections in 12 months excluding medical collections</t>
+  </si>
+  <si>
+    <t>Months since most recent 90-day or worse rating</t>
+  </si>
+  <si>
+    <t>publicly available policy_code=1
+new products not publicly available policy_code=2</t>
+  </si>
+  <si>
+    <t>The combined self-reported annual income provided by the co-borrowers during registration</t>
+  </si>
+  <si>
+    <t>A ratio calculated using the co-borrowers' total monthly payments on the total debt obligations, excluding mortgages and the requested LC loan, divided by the co-borrowers' combined self-reported monthly income</t>
+  </si>
+  <si>
+    <t>Indicates if the co-borrowers' joint income was verified by LC, not verified, or if the income source was verified</t>
+  </si>
+  <si>
+    <t>The number of accounts on which the borrower is now delinquent.</t>
+  </si>
+  <si>
+    <t>Total collection amounts ever owed</t>
+  </si>
+  <si>
+    <t>Total current balance of all accounts</t>
+  </si>
+  <si>
+    <t>Number of open trades in last 6 months</t>
+  </si>
+  <si>
+    <t>Number of currently active installment trades</t>
+  </si>
+  <si>
+    <t>Number of installment accounts opened in past 12 months</t>
+  </si>
+  <si>
+    <t>Number of installment accounts opened in past 24 months</t>
+  </si>
+  <si>
+    <t>Months since most recent installment accounts opened</t>
+  </si>
+  <si>
+    <t>Total current balance of all installment accounts</t>
+  </si>
+  <si>
+    <t>Ratio of total current balance to high credit/credit limit on all install acct</t>
+  </si>
+  <si>
+    <t>Number of revolving trades opened in past 12 months</t>
+  </si>
+  <si>
+    <t>Number of revolving trades opened in past 24 months</t>
+  </si>
+  <si>
+    <t>Maximum current balance owed on all revolving accounts</t>
+  </si>
+  <si>
+    <t>Balance to credit limit on all trades</t>
+  </si>
+  <si>
+    <t>Total revolving high credit/credit limit</t>
+  </si>
+  <si>
+    <t>Number of personal finance inquiries</t>
+  </si>
+  <si>
+    <t>Number of finance trades</t>
+  </si>
+  <si>
+    <t>Number of credit inquiries in past 12 months</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,13 +626,201 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -404,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -412,39 +837,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="20" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="23" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="26" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="29" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="32" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="21" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="24" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="27" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="30" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="33" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="36" xr:uid="{AE71EEEA-8A66-48B9-A85F-C3EA8EDD24C1}"/>
+    <cellStyle name="60% - Accent2 2" xfId="37" xr:uid="{297FD993-463A-4F81-BDD1-E67EA606F7F1}"/>
+    <cellStyle name="60% - Accent3 2" xfId="38" xr:uid="{7A57E5B6-C1B4-46BB-9BBC-5798E394DA45}"/>
+    <cellStyle name="60% - Accent4 2" xfId="39" xr:uid="{6E97CEFA-0518-4D1A-9087-19F3DCD1BD06}"/>
+    <cellStyle name="60% - Accent5 2" xfId="40" xr:uid="{3B449216-D81B-43CE-AC15-AF2B72D55B2E}"/>
+    <cellStyle name="60% - Accent6 2" xfId="41" xr:uid="{935776F6-764C-4447-9A29-CCD84B0099DA}"/>
+    <cellStyle name="Accent1" xfId="16" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="19" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="22" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="25" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="28" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="31" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="9" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="11" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="14" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="5" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="7" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="10" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="35" xr:uid="{AF069E45-43C5-4238-9466-D6A64B2D5904}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="13" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="8" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title 2" xfId="34" xr:uid="{D7F3F35E-B52E-42D9-9A2C-BEED98D7C2B1}"/>
+    <cellStyle name="Total" xfId="15" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="12" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -758,481 +1396,604 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF13FCE-F0B7-474C-AB0D-31B31A68B42A}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.77734375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="7">
         <v>51462</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="7">
         <v>44825</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="2">
         <v>761351</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="2">
         <v>454312</v>
       </c>
+      <c r="D10" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="2">
         <v>750326</v>
       </c>
+      <c r="D11" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="2">
         <v>29</v>
       </c>
+      <c r="D12" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="2">
         <v>502</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="2">
         <v>29</v>
       </c>
+      <c r="D15" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="2">
         <v>17659</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="2">
         <v>252971</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="D18" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="2">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="D19" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="2">
         <v>665676</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="D20" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="D21" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="2">
         <v>886868</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="D22" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="2">
         <v>886870</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="D23" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="2">
         <v>886868</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="D24" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="D25" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="2">
         <v>70276</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="D26" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="2">
         <v>70276</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="D27" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="2">
         <v>866007</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="D28" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="2">
         <v>866007</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="D29" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="2">
         <v>866007</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="D30" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="2">
         <v>866007</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="D31" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="2">
         <v>866569</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="D32" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="2">
         <v>866007</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="D33" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="2">
         <v>868762</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="D34" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="2">
         <v>866007</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="D35" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="2">
         <v>866007</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="D36" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="2">
         <v>866007</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="D37" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="2">
         <v>866007</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="D38" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="2">
         <v>70276</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="D39" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="2">
         <v>866007</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="D40" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="2">
         <v>866007</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="D41" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="2">
         <v>866007</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
